--- a/result_rawdata.xlsx
+++ b/result_rawdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39bdc4e331ca4c7b/바탕 화면/wj_internoise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39bdc4e331ca4c7b/바탕 화면/wj_internoise/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{03442EAD-A794-44B5-93CF-7193BC6B9C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40414B00-E044-42BD-AC87-53BD95232729}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{03442EAD-A794-44B5-93CF-7193BC6B9C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFC4C1B-F4C1-4B5E-A1CD-D30C149C601E}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{0508572C-2B74-4C76-807B-6D1C203292E5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{0508572C-2B74-4C76-807B-6D1C203292E5}"/>
   </bookViews>
   <sheets>
     <sheet name="on-site" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t>STFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>IID+sinIPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resnet2d_CLF_new_4ch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,9 +386,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441C625D-36F0-45A9-97BA-82858D267E2D}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -813,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.892018779342722</v>
+        <v>0.641891891891891</v>
       </c>
       <c r="C2">
         <v>0.98445595854922197</v>
@@ -853,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.80168776371308004</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="C4">
         <v>0.97435897435897401</v>
@@ -873,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.99658703071672305</v>
+        <v>0.78284182305630001</v>
       </c>
       <c r="C5">
         <v>0.99658703071672305</v>
@@ -913,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.96052631578947301</v>
+        <v>0.85970149253731298</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -953,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.94901960784313699</v>
+        <v>0.81756756756756699</v>
       </c>
       <c r="C9">
         <v>0.96031746031746001</v>
@@ -1013,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.66790352504638195</v>
+        <v>0.73170731707317005</v>
       </c>
       <c r="C12">
         <v>0.967741935483871</v>
@@ -1033,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.98630136986301298</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1054,7 +1047,7 @@
       </c>
       <c r="B14" s="4">
         <f>AVERAGE(B2:B13)</f>
-        <v>0.87964873966368529</v>
+        <v>0.81178222073627415</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:F14" si="0">AVERAGE(C2:C13)</f>
@@ -1078,12 +1071,9 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1103,12 +1093,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
-        <v>0.70270270270270196</v>
+        <v>0.68322981366459601</v>
       </c>
       <c r="C18">
         <v>0.97095435684647302</v>
@@ -1123,7 +1113,7 @@
         <v>0.99574468085106305</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1143,12 +1133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20">
-        <v>0.81720430107526798</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="C20">
         <v>0.96694214876033002</v>
@@ -1163,12 +1153,12 @@
         <v>0.99574468085106305</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.61016949152542299</v>
+        <v>0.594936708860759</v>
       </c>
       <c r="C21">
         <v>0.93913043478260805</v>
@@ -1176,15 +1166,14 @@
       <c r="D21">
         <v>0.990825688073394</v>
       </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>0.96428571428571397</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1197,15 +1186,14 @@
       <c r="D22">
         <v>0.70588235294117596</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>0.79411764705882304</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>0.96153846153846101</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1218,20 +1206,19 @@
       <c r="D23">
         <v>0.95575221238938002</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>0.98181818181818103</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>0.68604651162790697</v>
+        <v>0.70063694267515897</v>
       </c>
       <c r="C24">
         <v>0.69565217391304301</v>
@@ -1239,15 +1226,14 @@
       <c r="D24">
         <v>0.68711656441717694</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>0.67052023121387205</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <v>0.67428571428571404</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1260,20 +1246,19 @@
       <c r="D25">
         <v>0.67428571428571404</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>0.67428571428571404</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25">
         <v>0.91743119266054995</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26">
-        <v>0.79194630872483196</v>
+        <v>0.67428571428571404</v>
       </c>
       <c r="C26">
         <v>0.67428571428571404</v>
@@ -1288,12 +1273,12 @@
         <v>0.64968152866242002</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27">
-        <v>0.63541666666666596</v>
+        <v>0.61878453038673997</v>
       </c>
       <c r="C27">
         <v>0.90322580645161199</v>
@@ -1308,7 +1293,7 @@
         <v>0.91056910569105598</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1328,12 +1313,12 @@
         <v>0.98333333333333295</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29">
-        <v>0.83561643835616395</v>
+        <v>0.63541666666666596</v>
       </c>
       <c r="C29">
         <v>0.66304347826086896</v>
@@ -1348,13 +1333,13 @@
         <v>0.90769230769230702</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="4">
         <f>AVERAGE(B18:B29)</f>
-        <v>0.69178762308249009</v>
+        <v>0.65182892709652041</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" ref="C30" si="1">AVERAGE(C18:C29)</f>
@@ -1373,7 +1358,7 @@
         <v>0.91335889332097342</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1389,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCB7C46-717D-4A2B-AAD8-DCAC060C82F5}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1441,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.95424836601307095</v>
+        <v>0.69047619047619002</v>
       </c>
       <c r="C2">
         <v>0.99319727891156395</v>
@@ -1459,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>0.62790697674418605</v>
+        <v>0.58278145695364203</v>
       </c>
       <c r="J2">
         <v>0.93913043478260805</v>
@@ -1479,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.84821428571428503</v>
       </c>
       <c r="C3">
         <v>0.97975708502024195</v>
@@ -1497,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>0.69005847953216304</v>
+        <v>0.65753424657534199</v>
       </c>
       <c r="J3">
         <v>0.84482758620689602</v>
@@ -1517,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.96986301369863004</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="C4">
         <v>0.980926430517711</v>
@@ -1535,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="I4">
-        <v>0.64893617021276595</v>
+        <v>0.60240963855421603</v>
       </c>
       <c r="J4">
         <v>0.93333333333333302</v>
@@ -1669,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.82954545454545403</v>
+        <v>0.65470852017937198</v>
       </c>
       <c r="C8">
         <v>0.97009966777408596</v>
@@ -1687,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="I8">
-        <v>0.80303030303030298</v>
+        <v>0.61016949152542299</v>
       </c>
       <c r="J8">
         <v>0.94736842105263097</v>
@@ -1707,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0.98373983739837401</v>
+        <v>0.64021164021164001</v>
       </c>
       <c r="C9">
         <v>0.96799999999999997</v>
@@ -1725,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="I9">
-        <v>0.874074074074074</v>
+        <v>0.67816091954022895</v>
       </c>
       <c r="J9">
         <v>0.88695652173912998</v>
@@ -1745,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.956989247311827</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C10">
         <v>0.97826086956521696</v>
@@ -1763,7 +1748,7 @@
         <v>28</v>
       </c>
       <c r="I10">
-        <v>0.87769784172661802</v>
+        <v>0.63829787234042501</v>
       </c>
       <c r="J10">
         <v>0.96721311475409799</v>
@@ -1783,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>0.96808510638297796</v>
+        <v>0.73076923076922995</v>
       </c>
       <c r="C11">
         <v>0.978494623655914</v>
@@ -1801,7 +1786,7 @@
         <v>29</v>
       </c>
       <c r="I11">
-        <v>0.69230769230769196</v>
+        <v>0.68098159509202405</v>
       </c>
       <c r="J11">
         <v>0.95901639344262202</v>
@@ -1821,7 +1806,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C12">
         <v>0.99588477366255101</v>
@@ -1839,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0.67428571428571404</v>
+        <v>0.67114093959731502</v>
       </c>
       <c r="J12">
         <v>0.852173913043478</v>
@@ -1859,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.92261904761904701</v>
       </c>
       <c r="C13">
         <v>0.99722991689750595</v>
@@ -1877,7 +1862,7 @@
         <v>31</v>
       </c>
       <c r="I13">
-        <v>0.63541666666666596</v>
+        <v>0.623529411764705</v>
       </c>
       <c r="J13">
         <v>0.92561983471074305</v>
@@ -2011,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.95431472081218205</v>
+        <v>0.82251082251082197</v>
       </c>
       <c r="C17">
         <v>0.99476439790575899</v>
@@ -2049,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.96031746031746001</v>
       </c>
       <c r="C18">
         <v>0.99588477366255101</v>
@@ -2087,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>0.99168975069251997</v>
+        <v>0.86956521739130399</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2125,7 +2110,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.92929292929292895</v>
+        <v>0.87323943661971803</v>
       </c>
       <c r="C20">
         <v>0.90804597701149403</v>
@@ -2143,7 +2128,7 @@
         <v>32</v>
       </c>
       <c r="I20">
-        <v>0.69850746268656705</v>
+        <v>0.67692307692307596</v>
       </c>
       <c r="J20">
         <v>0.72222222222222199</v>
@@ -2163,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>0.97643097643097598</v>
+        <v>0.94949494949494895</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2181,7 +2166,7 @@
         <v>39</v>
       </c>
       <c r="I21">
-        <v>0.63529411764705801</v>
+        <v>0.59210526315789402</v>
       </c>
       <c r="J21">
         <v>0.63905325443786898</v>
@@ -2201,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>0.98305084745762705</v>
+        <v>0.52459016393442603</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2219,7 +2204,7 @@
         <v>40</v>
       </c>
       <c r="I22">
-        <v>0.64893617021276595</v>
+        <v>0.61077844311377205</v>
       </c>
       <c r="J22">
         <v>0.69005847953216304</v>
@@ -2239,7 +2224,7 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>0.85201793721973096</v>
+        <v>0.72586872586872497</v>
       </c>
       <c r="C23">
         <v>0.98445595854922197</v>
@@ -2277,7 +2262,7 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>0.89783281733746101</v>
+        <v>0.77956989247311803</v>
       </c>
       <c r="C24">
         <v>0.94498381877022597</v>
@@ -2315,7 +2300,7 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>0.90225563909774398</v>
+        <v>0.87850467289719603</v>
       </c>
       <c r="C25">
         <v>0.96256684491978595</v>
@@ -2353,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>0.87962962962962898</v>
+        <v>0.84651162790697598</v>
       </c>
       <c r="C26">
         <v>0.99470899470899399</v>
@@ -2371,7 +2356,7 @@
         <v>44</v>
       </c>
       <c r="I26">
-        <v>0.74509803921568596</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="J26">
         <v>0.69230769230769196</v>
@@ -2391,7 +2376,7 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>0.89506172839506104</v>
+        <v>0.89610389610389596</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2409,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="I27">
-        <v>0.74125874125874103</v>
+        <v>0.61016949152542299</v>
       </c>
       <c r="J27">
         <v>0.61016949152542299</v>
@@ -2429,7 +2414,7 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>0.994413407821229</v>
+        <v>0.25242718446601897</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2447,7 +2432,7 @@
         <v>46</v>
       </c>
       <c r="I28">
-        <v>0.76249999999999996</v>
+        <v>0.64210526315789396</v>
       </c>
       <c r="J28">
         <v>0.63541666666666596</v>
@@ -2467,7 +2452,7 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>0.92063492063492003</v>
+        <v>0.86238532110091703</v>
       </c>
       <c r="C29">
         <v>0.97297297297297303</v>
@@ -2485,7 +2470,7 @@
         <v>47</v>
       </c>
       <c r="I29">
-        <v>0.69230769230769196</v>
+        <v>0.68882175226586095</v>
       </c>
       <c r="J29">
         <v>0.914062499999999</v>
@@ -2505,7 +2490,7 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>0.98281786941580696</v>
+        <v>0.93602693602693599</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2523,7 +2508,7 @@
         <v>48</v>
       </c>
       <c r="I30">
-        <v>0.61016949152542299</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="J30">
         <v>0.83076923076923004</v>
@@ -2543,7 +2528,7 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.84761904761904705</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2561,7 +2546,7 @@
         <v>49</v>
       </c>
       <c r="I31">
-        <v>0.67428571428571404</v>
+        <v>0.6875</v>
       </c>
       <c r="J31">
         <v>0.79674796747967402</v>
@@ -2581,7 +2566,7 @@
         <v>50</v>
       </c>
       <c r="B32">
-        <v>0.641891891891891</v>
+        <v>0.71698113207547098</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2619,7 +2604,7 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <v>0.66213151927437597</v>
+        <v>0.770448548812664</v>
       </c>
       <c r="C33">
         <v>0.96688741721854299</v>
@@ -2657,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>0.75155279503105499</v>
+        <v>0.945312499999999</v>
       </c>
       <c r="C34">
         <v>0.97975708502024195</v>
@@ -2695,7 +2680,7 @@
         <v>53</v>
       </c>
       <c r="B35">
-        <v>0.94416243654822296</v>
+        <v>0.92063492063492003</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2713,7 +2698,7 @@
         <v>53</v>
       </c>
       <c r="I35">
-        <v>0.78723404255319096</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="J35">
         <v>0.70481927710843295</v>
@@ -2733,7 +2718,7 @@
         <v>54</v>
       </c>
       <c r="B36">
-        <v>0.94462540716612298</v>
+        <v>0.93238434163701001</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2751,7 +2736,7 @@
         <v>54</v>
       </c>
       <c r="I36">
-        <v>0.82539682539682502</v>
+        <v>0.61016949152542299</v>
       </c>
       <c r="J36">
         <v>0.61363636363636298</v>
@@ -2789,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="I37">
-        <v>0.86764705882352899</v>
+        <v>0.67428571428571404</v>
       </c>
       <c r="J37">
         <v>0.68604651162790697</v>
@@ -2810,7 +2795,7 @@
       </c>
       <c r="B38" s="6">
         <f>AVERAGE(B2:B37)</f>
-        <v>0.87848060030100361</v>
+        <v>0.77004348576943793</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" ref="C38:F38" si="0">AVERAGE(C2:C37)</f>
@@ -2833,7 +2818,7 @@
       </c>
       <c r="I38" s="6">
         <f>AVERAGE(I2:I37)</f>
-        <v>0.69585827894749797</v>
+        <v>0.64926467278139766</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" ref="J38:M38" si="1">AVERAGE(J2:J37)</f>
@@ -2899,7 +2884,7 @@
       </c>
       <c r="B2" s="7">
         <f>'on-site'!B14</f>
-        <v>0.87964873966368529</v>
+        <v>0.81178222073627415</v>
       </c>
       <c r="C2" s="7">
         <f>'on-site'!C14</f>
@@ -2924,7 +2909,7 @@
       </c>
       <c r="B3" s="7">
         <f>'on-site'!B30</f>
-        <v>0.69178762308249009</v>
+        <v>0.65182892709652041</v>
       </c>
       <c r="C3" s="7">
         <f>'on-site'!C30</f>
@@ -2954,7 +2939,7 @@
       </c>
       <c r="B4" s="7">
         <f>'ot-site'!B38</f>
-        <v>0.87848060030100361</v>
+        <v>0.77004348576943793</v>
       </c>
       <c r="C4" s="7">
         <f>'ot-site'!C38</f>
@@ -2984,7 +2969,7 @@
       </c>
       <c r="B5" s="7">
         <f>'ot-site'!I38</f>
-        <v>0.69585827894749797</v>
+        <v>0.64926467278139766</v>
       </c>
       <c r="C5" s="7">
         <f>'ot-site'!J38</f>
@@ -3014,7 +2999,7 @@
       </c>
       <c r="B6" s="7">
         <f>AVERAGE(B2:B5)</f>
-        <v>0.78644381049866918</v>
+        <v>0.72072982659590756</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:E6" si="0">AVERAGE(C2:C5)</f>
